--- a/biology/Botanique/Dasylirion_serratifolium/Dasylirion_serratifolium.xlsx
+++ b/biology/Botanique/Dasylirion_serratifolium/Dasylirion_serratifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasylirion serratifolium est une espèce de plante très proche des nolines et des yuccas, que l'on peut reconnaître grâce aux feuilles plus courtes que celles de Dasylirion acrotriche. Originaire de centre du Mexique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasylirion serratifolium est une espèce de plante très proche des nolines et des yuccas, que l'on peut reconnaître grâce aux feuilles plus courtes que celles de Dasylirion acrotriche. Originaire de centre du Mexique.
 </t>
         </is>
       </c>
